--- a/server/templates/cestovny-prikaz.xlsx
+++ b/server/templates/cestovny-prikaz.xlsx
@@ -429,21 +429,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="#,##0.00\ [$€-41B];\-#,##0.00\ [$€-41B]"/>
-    <numFmt numFmtId="177" formatCode="d/m"/>
-    <numFmt numFmtId="178" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="179" formatCode="#,##0&quot; Sk &quot;;\-#,##0&quot; Sk &quot;;\-#&quot; Sk &quot;;@\ "/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot; €&quot;;\-#,##0&quot; €&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00&quot; €&quot;;\-#,##0.00&quot; €&quot;"/>
+    <numFmt numFmtId="178" formatCode="d/m"/>
+    <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00\ [$€-41B];\-#,##0.00\ [$€-41B]"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="#,##0&quot; Sk&quot;"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00&quot; Sk &quot;;\-#,##0.00&quot; Sk &quot;;\-#&quot; Sk &quot;;@\ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="#,##0&quot; Sk &quot;;\-#,##0&quot; Sk &quot;;\-#&quot; Sk &quot;;@\ "/>
+    <numFmt numFmtId="184" formatCode="#,##0.00&quot; €&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="d\.m\."/>
-    <numFmt numFmtId="181" formatCode="#,##0&quot; Sk&quot;"/>
-    <numFmt numFmtId="182" formatCode="#,##0&quot; €&quot;;\-#,##0&quot; €&quot;"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="#,##0.00&quot; €&quot;;\-#,##0.00&quot; €&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00&quot; Sk &quot;;\-#,##0.00&quot; Sk &quot;;\-#&quot; Sk &quot;;@\ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.00&quot; €&quot;"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="185" formatCode="d\.m\."/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -486,6 +486,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="7"/>
+      <name val="Arial CE"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial CE"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -494,27 +508,7 @@
     <font>
       <b/>
       <i/>
-      <sz val="7"/>
-      <name val="Arial CE"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial CE"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="8"/>
-      <name val="Arial CE"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
       <name val="Arial CE"/>
       <charset val="134"/>
     </font>
@@ -594,23 +588,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,34 +618,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,9 +634,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,8 +649,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,24 +688,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,24 +702,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -754,49 +748,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +790,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,25 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,85 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,6 +1745,89 @@
         <color rgb="FF3C3C3C"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1768,228 +1845,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="70" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="73" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2049,7 +2043,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2058,19 +2052,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
@@ -2079,7 +2073,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -2115,7 +2109,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2196,19 +2190,19 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2232,7 +2226,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="22" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="22" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2241,7 +2235,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
@@ -2259,7 +2253,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
@@ -2277,37 +2271,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
@@ -2319,7 +2313,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
@@ -2334,37 +2328,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="38" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="38" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="14" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2373,16 +2367,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="14" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2394,22 +2388,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2433,10 +2427,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2448,25 +2442,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="33" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="33" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
@@ -2475,16 +2469,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="21" fillId="0" borderId="57" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="20" fillId="0" borderId="57" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="15" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2493,13 +2487,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="44" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="44" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="42" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="42" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2508,34 +2502,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="53" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="53" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="64" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="64" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="47" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="47" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="57" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="57" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="21" fillId="0" borderId="67" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="20" fillId="0" borderId="67" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="57" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="57" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="67" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="67" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
@@ -2930,7 +2924,7 @@
   <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
